--- a/大一课表.xlsx
+++ b/大一课表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\python\auto_chat_robot\wechat_robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AAF8A9-F5CC-43B6-AC45-4C5EBB1C4109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C852197-EE55-4F52-BA04-228018B64B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>大一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>1-18</t>
+  </si>
+  <si>
+    <t>1-18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,13 +166,13 @@
   </si>
   <si>
     <t>all</t>
-  </si>
-  <si>
-    <t>all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,7 +248,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学</t>
+    <t>物理</t>
   </si>
 </sst>
 </file>
@@ -807,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -822,46 +825,46 @@
     <col min="33" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
       <c r="J1" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="5"/>
       <c r="V1" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
@@ -873,10 +876,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>14</v>
@@ -888,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
@@ -900,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>14</v>
@@ -912,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>14</v>
@@ -924,7 +927,7 @@
         <v>16</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>14</v>
@@ -936,7 +939,7 @@
         <v>16</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>14</v>
@@ -948,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="7" t="s">
         <v>14</v>
@@ -959,39 +962,21 @@
       <c r="AC2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="7"/>
@@ -1018,16 +1003,16 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="2" t="s">
-        <v>41</v>
+      <c r="AF3" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>48</v>
@@ -1035,8 +1020,14 @@
       <c r="AI3" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
@@ -1067,20 +1058,28 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="2"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AH4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="9"/>
       <c r="C5" s="7"/>
@@ -1111,7 +1110,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>20</v>
@@ -1119,17 +1118,28 @@
       <c r="AF5" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AG5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AK5" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="9"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8">
+        <v>108</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <v>108</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1151,14 +1161,19 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AF6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="9"/>
       <c r="C7" s="7"/>
@@ -1189,14 +1204,17 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AF7" s="2"/>
+      <c r="AK7" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -1229,14 +1247,17 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK8" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
@@ -1267,14 +1288,17 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK9" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="9"/>
       <c r="C10" s="7"/>
@@ -1305,19 +1329,24 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AF10" s="1"/>
+      <c r="AK10" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8">
+        <v>108</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1343,14 +1372,17 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AF11" s="2"/>
+      <c r="AK11" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="9"/>
       <c r="C12" s="7"/>
@@ -1381,14 +1413,17 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK12" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>3</v>
       </c>
@@ -1421,14 +1456,17 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF13" s="2"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AF13" s="1"/>
+      <c r="AK13" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="9"/>
       <c r="C14" s="7"/>
@@ -1459,14 +1497,14 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AF14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="7"/>
@@ -1496,12 +1534,15 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="8"/>
+      <c r="AD15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="AE15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="9"/>
       <c r="C16" s="7"/>
@@ -1566,7 +1607,6 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="8"/>
-      <c r="AD17" s="18"/>
       <c r="AE17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1608,6 +1648,7 @@
       <c r="AE18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
@@ -1817,6 +1858,9 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="18"/>
+      <c r="AE24" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
@@ -1950,8 +1994,8 @@
     <row r="39" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD39" s="18"/>
     </row>
-    <row r="41" spans="30:30" x14ac:dyDescent="0.3">
-      <c r="AD41" s="18"/>
+    <row r="40" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD40" s="18"/>
     </row>
     <row r="42" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD42" s="18"/>
@@ -1992,8 +2036,11 @@
     <row r="54" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD54" s="18"/>
     </row>
-    <row r="56" spans="30:30" x14ac:dyDescent="0.3">
-      <c r="AD56" s="18"/>
+    <row r="55" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD55" s="18"/>
+    </row>
+    <row r="57" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD57" s="18"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2007,27 +2054,30 @@
     <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C27 AA3:AA27 W3:W27 S3:S27 O3:O27 K3:K27 G3:G27" xr:uid="{BE2DB2F2-05D7-44E3-93E6-F7454A7CD462}">
-      <formula1>$AD$2:$AD$14</formula1>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C27 G3:G27 K3:K27 O3:O27 S3:S27 W3:W27 AA3:AA27" xr:uid="{745D262E-54B5-4F17-A926-184B83E3C8B3}">
+      <formula1>$AD$3:$AD$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D27 H3:H27 L3:L27 P3:P27 T3:T27 X3:X27 AB3:AB27" xr:uid="{67E098DC-5C0A-4623-B5A2-A945286E52AE}">
-      <formula1>$AE$2:$AE$23</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D27 AB3:AB27 X3:X27 T3:T27 P3:P27 L3:L27 H3:H27" xr:uid="{5DABA114-1062-4D1D-9514-3B0BEAFFDBBC}">
+      <formula1>$AE$3:$AE$24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B23 B18 B13 B8 F3 F23 F18 F13 F8 J3 J23 J18 J13 J8 N3 N23 N18 N13 N8 R3 R23 R18 R13 R8 V3 V23 V18 V13 V8 Z3 Z23 Z18 Z13 Z8" xr:uid="{4BEC2A38-2432-4DC8-AF54-CA1C38FA7CB8}">
-      <formula1>$AF$2:$AF$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 Z8 Z13 Z18 Z23 Z3 V8 V13 V18 V23 V3 R8 R13 R18 R23 R3 N8 N13 N18 N23 N3 J8 J13 J18 J23 J3 F8 F13 F18 F23 F3 B8 B13 B18 B23" xr:uid="{F3D16A97-DFF2-488B-8DBA-E64E55F1289F}">
+      <formula1>$AF$3:$AF$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B24 B19 B14 B9 F4 F24 F19 F14 F9 J4 J24 J19 J14 J9 N4 N24 N19 N14 N9 R4 R24 R19 R14 R9 V4 V24 V19 V14 V9 Z4 Z24 Z19 Z14 Z9" xr:uid="{DDD64051-2003-447D-A244-F249B47FF751}">
-      <formula1>$AG$2:$AG$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 Z9 Z14 Z19 Z24 Z4 V9 V14 V19 V24 V4 R9 R14 R19 R24 R4 N9 N14 N19 N24 N4 J9 J14 J19 J24 J4 F9 F14 F19 F24 F4 B9 B14 B19 B24" xr:uid="{2C305949-2B4C-4F25-9347-C451194F79B1}">
+      <formula1>$AG$3:$AG$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B25 B20 B15 B10 F5 F25 F20 F15 F10 J5 J25 J20 J15 J10 N5 N25 N20 N15 N10 R5 R25 R20 R15 R10 V5 V25 V20 V15 V10 Z5 Z25 Z20 Z15 Z10" xr:uid="{A39F2C70-9EC2-4E10-BB34-F75993B828C3}">
-      <formula1>$AH$2:$AH$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 Z10 Z15 Z20 Z25 Z5 V10 V15 V20 V25 V5 R10 R15 R20 R25 R5 N10 N15 N20 N25 N5 J10 J15 J20 J25 J5 F10 F15 F20 F25 F5 B10 B15 B20 B25" xr:uid="{597160F3-F642-4B85-9048-3D7E2A29EC18}">
+      <formula1>$AH$3:$AH$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B26 B21 B16 B11 F6 F26 F21 F16 F11 J6 J26 J21 J16 J11 N6 N26 N21 N16 N11 R6 R26 R21 R16 R11 V6 V26 V21 V16 V11 Z6 Z26 Z21 Z16 Z11" xr:uid="{9A8AC635-1BBC-40D0-923F-41DC885071D0}">
-      <formula1>$AI$2:$AI$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 Z11 Z16 Z21 Z26 Z6 V11 V16 V21 V26 V6 R11 R16 R21 R26 R6 N11 N16 N21 N26 N6 J11 J16 J21 J26 J6 F11 F16 F21 F26 F6 B11 B16 B21 B26" xr:uid="{309D24FC-0E6F-4AE4-B3D7-CC582FD730BE}">
+      <formula1>$AI$3:$AI$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI3 Z7 Z12 Z17 Z22 Z27 V7 V12 V17 V22 V27 R7 R12 R17 R22 R27 N7 N12 N17 N22 N27 J7 J12 J17 J22 J27 F7 F12 F17 F22 F27 B7 B12 B17 B22 B27" xr:uid="{E6545945-A7D8-4D34-BB54-E220F04DCC6D}">
-      <formula1>$AJ$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI4 B27 B22 B17 B12 B7 F27 F22 F17 F12 F7 J27 J22 J17 J12 J7 N27 N22 N17 N12 N7 R27 R22 R17 R12 R7 V27 V22 V17 V12 V7 Z27 Z22 Z17 Z12 Z7" xr:uid="{E6545945-A7D8-4D34-BB54-E220F04DCC6D}">
+      <formula1>$AJ$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I27 AC3:AC27 Y3:Y27 U3:U27 Q3:Q27 M3:M27 E3:E27" xr:uid="{A01D53C9-F222-4E89-BAA5-7F02B966990C}">
+      <formula1>$AK$3:$AK$17</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
